--- a/_data/WePlayData/CleanedWPCFamilySurvey.xlsx
+++ b/_data/WePlayData/CleanedWPCFamilySurvey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renarepenning/Desktop/School/weplaynoladata/_data/WePlayData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30214FC0-A95C-E149-9995-896C648765EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4D6BB6-9BE8-634D-A506-AC4A11BF6BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8680" yWindow="460" windowWidth="20120" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="363">
   <si>
     <t>First Name</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>08/12/2019</t>
-  </si>
-  <si>
-    <t>33 years old</t>
   </si>
   <si>
     <t>Between $50,000 and $74,999</t>
@@ -1521,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BE11" sqref="BE11"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2266,8 +2263,8 @@
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" t="s">
-        <v>109</v>
+      <c r="B7">
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -2282,7 +2279,7 @@
         <v>70122</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>89</v>
@@ -2297,7 +2294,7 @@
         <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V7" t="s">
         <v>76</v>
@@ -2360,7 +2357,7 @@
         <v>83</v>
       </c>
       <c r="AR7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS7" t="s">
         <v>83</v>
@@ -2384,22 +2381,22 @@
         <v>20</v>
       </c>
       <c r="BE7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF7" t="s">
         <v>113</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>114</v>
       </c>
       <c r="BG7" t="s">
         <v>99</v>
       </c>
       <c r="BH7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI7" t="s">
         <v>115</v>
       </c>
-      <c r="BI7" t="s">
+      <c r="BJ7" t="s">
         <v>116</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.2">
@@ -2422,7 +2419,7 @@
         <v>70117</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
         <v>89</v>
@@ -2520,7 +2517,7 @@
         <v>70117</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s">
         <v>89</v>
@@ -2532,13 +2529,13 @@
         <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R9" t="s">
         <v>70</v>
       </c>
       <c r="S9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V9" t="s">
         <v>76</v>
@@ -2636,10 +2633,10 @@
         <v>70116</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
         <v>90</v>
@@ -2654,7 +2651,7 @@
         <v>92</v>
       </c>
       <c r="V10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
         <v>93</v>
@@ -2764,7 +2761,7 @@
         <v>91</v>
       </c>
       <c r="S11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V11" t="s">
         <v>76</v>
@@ -2866,22 +2863,22 @@
         <v>2</v>
       </c>
       <c r="BE11" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF11" t="s">
         <v>124</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>125</v>
       </c>
       <c r="BG11" t="s">
         <v>99</v>
       </c>
       <c r="BH11" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI11" t="s">
         <v>126</v>
       </c>
-      <c r="BI11" t="s">
+      <c r="BJ11" t="s">
         <v>127</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.2">
@@ -2892,7 +2889,7 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2904,10 +2901,10 @@
         <v>70117</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
         <v>90</v>
@@ -2919,7 +2916,7 @@
         <v>70</v>
       </c>
       <c r="S12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V12" t="s">
         <v>76</v>
@@ -2940,7 +2937,7 @@
         <v>78</v>
       </c>
       <c r="AD12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE12" t="s">
         <v>83</v>
@@ -2949,10 +2946,10 @@
         <v>83</v>
       </c>
       <c r="AG12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH12" t="s">
         <v>130</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>131</v>
       </c>
       <c r="AI12" t="s">
         <v>95</v>
@@ -3021,22 +3018,22 @@
         <v>5</v>
       </c>
       <c r="BE12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF12" t="s">
         <v>132</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>133</v>
       </c>
       <c r="BG12" t="s">
         <v>99</v>
       </c>
       <c r="BH12" t="s">
+        <v>133</v>
+      </c>
+      <c r="BI12" t="s">
         <v>134</v>
       </c>
-      <c r="BI12" t="s">
+      <c r="BJ12" t="s">
         <v>135</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
@@ -3059,16 +3056,16 @@
         <v>70125</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
         <v>90</v>
       </c>
       <c r="Q13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R13" t="s">
         <v>91</v>
@@ -3161,22 +3158,22 @@
         <v>4</v>
       </c>
       <c r="BE13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BF13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BG13" t="s">
         <v>99</v>
       </c>
       <c r="BH13" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI13" t="s">
         <v>140</v>
       </c>
-      <c r="BI13" t="s">
+      <c r="BJ13" t="s">
         <v>141</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
@@ -3202,22 +3199,22 @@
         <v>70056</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
         <v>90</v>
       </c>
       <c r="Q14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R14" t="s">
         <v>70</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V14" t="s">
         <v>76</v>
@@ -3250,7 +3247,7 @@
         <v>83</v>
       </c>
       <c r="AH14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI14" t="s">
         <v>77</v>
@@ -3304,22 +3301,22 @@
         <v>7</v>
       </c>
       <c r="BE14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF14" t="s">
         <v>144</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>145</v>
       </c>
       <c r="BG14" t="s">
         <v>99</v>
       </c>
       <c r="BH14" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI14" t="s">
         <v>146</v>
       </c>
-      <c r="BI14" t="s">
+      <c r="BJ14" t="s">
         <v>147</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.2">
@@ -3342,7 +3339,7 @@
         <v>70119</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
         <v>89</v>
@@ -3444,22 +3441,22 @@
         <v>15</v>
       </c>
       <c r="BE15" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF15" t="s">
         <v>150</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>151</v>
       </c>
       <c r="BG15" t="s">
         <v>99</v>
       </c>
       <c r="BH15" t="s">
+        <v>151</v>
+      </c>
+      <c r="BI15" t="s">
         <v>152</v>
       </c>
-      <c r="BI15" t="s">
+      <c r="BJ15" t="s">
         <v>153</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.2">
@@ -3482,10 +3479,10 @@
         <v>70118</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
         <v>90</v>
@@ -3494,7 +3491,7 @@
         <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R16" t="s">
         <v>70</v>
@@ -3530,7 +3527,7 @@
         <v>80</v>
       </c>
       <c r="AG16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH16" t="s">
         <v>80</v>
@@ -3602,22 +3599,22 @@
         <v>14</v>
       </c>
       <c r="BE16" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF16" t="s">
         <v>156</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>157</v>
       </c>
       <c r="BG16" t="s">
         <v>99</v>
       </c>
       <c r="BH16" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI16" t="s">
         <v>158</v>
       </c>
-      <c r="BI16" t="s">
+      <c r="BJ16" t="s">
         <v>159</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.2">
@@ -3640,7 +3637,7 @@
         <v>70122</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>89</v>
@@ -3742,22 +3739,22 @@
         <v>10</v>
       </c>
       <c r="BE17" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF17" t="s">
         <v>161</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>162</v>
       </c>
       <c r="BG17" t="s">
         <v>99</v>
       </c>
       <c r="BH17" t="s">
+        <v>162</v>
+      </c>
+      <c r="BI17" t="s">
         <v>163</v>
       </c>
-      <c r="BI17" t="s">
-        <v>164</v>
-      </c>
       <c r="BJ17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
@@ -3780,10 +3777,10 @@
         <v>70117</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
         <v>90</v>
@@ -3795,13 +3792,13 @@
         <v>91</v>
       </c>
       <c r="S18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s">
         <v>78</v>
@@ -3828,7 +3825,7 @@
         <v>83</v>
       </c>
       <c r="AG18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH18" t="s">
         <v>83</v>
@@ -3884,7 +3881,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3899,7 +3896,7 @@
         <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
         <v>90</v>
@@ -3911,7 +3908,7 @@
         <v>91</v>
       </c>
       <c r="S19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y19" t="s">
         <v>79</v>
@@ -3938,19 +3935,19 @@
         <v>2</v>
       </c>
       <c r="BE19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BG19" t="s">
         <v>99</v>
       </c>
       <c r="BH19" t="s">
+        <v>168</v>
+      </c>
+      <c r="BI19" t="s">
         <v>169</v>
       </c>
-      <c r="BI19" t="s">
+      <c r="BJ19" t="s">
         <v>170</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:62" x14ac:dyDescent="0.2">
@@ -3973,22 +3970,22 @@
         <v>70125</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
         <v>90</v>
       </c>
       <c r="Q20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R20" t="s">
         <v>70</v>
       </c>
       <c r="S20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V20" t="s">
         <v>76</v>
@@ -4090,22 +4087,22 @@
         <v>7</v>
       </c>
       <c r="BE20" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF20" t="s">
         <v>173</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>174</v>
       </c>
       <c r="BG20" t="s">
         <v>99</v>
       </c>
       <c r="BH20" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI20" t="s">
         <v>175</v>
       </c>
-      <c r="BI20" t="s">
+      <c r="BJ20" t="s">
         <v>176</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
@@ -4128,10 +4125,10 @@
         <v>70116</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
         <v>90</v>
@@ -4140,13 +4137,13 @@
         <v>31</v>
       </c>
       <c r="Q21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R21" t="s">
         <v>70</v>
       </c>
       <c r="S21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V21" t="s">
         <v>76</v>
@@ -4233,22 +4230,22 @@
         <v>5</v>
       </c>
       <c r="BE21" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF21" t="s">
         <v>179</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>180</v>
       </c>
       <c r="BG21" t="s">
         <v>99</v>
       </c>
       <c r="BH21" t="s">
+        <v>180</v>
+      </c>
+      <c r="BI21" t="s">
         <v>181</v>
       </c>
-      <c r="BI21" t="s">
-        <v>182</v>
-      </c>
       <c r="BJ21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
@@ -4280,13 +4277,13 @@
         <v>90</v>
       </c>
       <c r="Q22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R22" t="s">
         <v>70</v>
       </c>
       <c r="S22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V22" t="s">
         <v>76</v>
@@ -4373,22 +4370,22 @@
         <v>10</v>
       </c>
       <c r="BE22" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF22" t="s">
         <v>184</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>185</v>
       </c>
       <c r="BG22" t="s">
         <v>99</v>
       </c>
       <c r="BH22" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI22" t="s">
         <v>186</v>
       </c>
-      <c r="BI22" t="s">
+      <c r="BJ22" t="s">
         <v>187</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.2">
@@ -4411,10 +4408,10 @@
         <v>70119</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
         <v>90</v>
@@ -4429,7 +4426,7 @@
         <v>70</v>
       </c>
       <c r="S23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V23" t="s">
         <v>76</v>
@@ -4516,10 +4513,10 @@
         <v>20</v>
       </c>
       <c r="BE23" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF23" t="s">
         <v>189</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>190</v>
       </c>
       <c r="BG23" t="s">
         <v>99</v>
@@ -4545,10 +4542,10 @@
         <v>70119</v>
       </c>
       <c r="H24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
         <v>90</v>
@@ -4557,7 +4554,7 @@
         <v>29</v>
       </c>
       <c r="R24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S24" t="s">
         <v>103</v>
@@ -4650,22 +4647,22 @@
         <v>10</v>
       </c>
       <c r="BE24" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF24" t="s">
         <v>191</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>192</v>
       </c>
       <c r="BG24" t="s">
         <v>99</v>
       </c>
       <c r="BH24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI24" t="s">
         <v>193</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BJ24" t="s">
         <v>194</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.2">
@@ -4688,10 +4685,10 @@
         <v>70124</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
         <v>90</v>
@@ -4703,7 +4700,7 @@
         <v>91</v>
       </c>
       <c r="S25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V25" t="s">
         <v>76</v>
@@ -4790,22 +4787,22 @@
         <v>20</v>
       </c>
       <c r="BE25" t="s">
+        <v>195</v>
+      </c>
+      <c r="BF25" t="s">
         <v>196</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>197</v>
       </c>
       <c r="BG25" t="s">
         <v>99</v>
       </c>
       <c r="BH25" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI25" t="s">
         <v>198</v>
       </c>
-      <c r="BI25" t="s">
+      <c r="BJ25" t="s">
         <v>199</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:62" x14ac:dyDescent="0.2">
@@ -4828,7 +4825,7 @@
         <v>70117</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
         <v>89</v>
@@ -4864,7 +4861,7 @@
         <v>78</v>
       </c>
       <c r="AD26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE26" t="s">
         <v>84</v>
@@ -4930,22 +4927,22 @@
         <v>15</v>
       </c>
       <c r="BE26" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF26" t="s">
         <v>201</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>202</v>
       </c>
       <c r="BG26" t="s">
         <v>99</v>
       </c>
       <c r="BH26" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI26" t="s">
         <v>203</v>
       </c>
-      <c r="BI26" t="s">
+      <c r="BJ26" t="s">
         <v>204</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.2">
@@ -4968,7 +4965,7 @@
         <v>70118</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27" t="s">
         <v>89</v>
@@ -4980,22 +4977,22 @@
         <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S27" t="s">
         <v>75</v>
       </c>
       <c r="T27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V27" t="s">
         <v>76</v>
       </c>
       <c r="W27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s">
         <v>78</v>
@@ -5079,22 +5076,22 @@
         <v>1</v>
       </c>
       <c r="BE27" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF27" t="s">
         <v>207</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>208</v>
       </c>
       <c r="BG27" t="s">
         <v>99</v>
       </c>
       <c r="BH27" t="s">
+        <v>208</v>
+      </c>
+      <c r="BI27" t="s">
         <v>209</v>
       </c>
-      <c r="BI27" t="s">
+      <c r="BJ27" t="s">
         <v>210</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.2">
@@ -5126,13 +5123,13 @@
         <v>90</v>
       </c>
       <c r="Q28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T28" t="s">
         <v>75</v>
@@ -5225,22 +5222,22 @@
         <v>3</v>
       </c>
       <c r="BE28" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF28" t="s">
         <v>213</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>214</v>
       </c>
       <c r="BG28" t="s">
         <v>99</v>
       </c>
       <c r="BH28" t="s">
+        <v>214</v>
+      </c>
+      <c r="BI28" t="s">
         <v>215</v>
       </c>
-      <c r="BI28" t="s">
-        <v>216</v>
-      </c>
       <c r="BJ28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:62" x14ac:dyDescent="0.2">
@@ -5263,19 +5260,19 @@
         <v>70117</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J29" t="s">
         <v>90</v>
       </c>
       <c r="Q29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V29" t="s">
         <v>76</v>
@@ -5374,22 +5371,22 @@
         <v>1</v>
       </c>
       <c r="BE29" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF29" t="s">
         <v>218</v>
-      </c>
-      <c r="BF29" t="s">
-        <v>219</v>
       </c>
       <c r="BG29" t="s">
         <v>99</v>
       </c>
       <c r="BH29" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI29" t="s">
         <v>220</v>
       </c>
-      <c r="BI29" t="s">
-        <v>221</v>
-      </c>
       <c r="BJ29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.2">
@@ -5412,10 +5409,10 @@
         <v>70131</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s">
         <v>90</v>
@@ -5427,7 +5424,7 @@
         <v>70</v>
       </c>
       <c r="S30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V30" t="s">
         <v>76</v>
@@ -5454,10 +5451,10 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH30" t="s">
         <v>83</v>
@@ -5514,16 +5511,16 @@
         <v>1</v>
       </c>
       <c r="BE30" t="s">
+        <v>221</v>
+      </c>
+      <c r="BF30" t="s">
         <v>222</v>
-      </c>
-      <c r="BF30" t="s">
-        <v>223</v>
       </c>
       <c r="BG30" t="s">
         <v>99</v>
       </c>
       <c r="BJ30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
@@ -5546,10 +5543,10 @@
         <v>70119</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J31" t="s">
         <v>90</v>
@@ -5663,22 +5660,22 @@
         <v>14</v>
       </c>
       <c r="BE31" t="s">
+        <v>224</v>
+      </c>
+      <c r="BF31" t="s">
         <v>225</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>226</v>
       </c>
       <c r="BG31" t="s">
         <v>99</v>
       </c>
       <c r="BH31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BI31" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ31" t="s">
         <v>227</v>
-      </c>
-      <c r="BJ31" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.2">
@@ -5701,10 +5698,10 @@
         <v>70119</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
         <v>90</v>
@@ -5716,7 +5713,7 @@
         <v>91</v>
       </c>
       <c r="S32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V32" t="s">
         <v>76</v>
@@ -5782,7 +5779,7 @@
         <v>82</v>
       </c>
       <c r="AS32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AT32" t="s">
         <v>84</v>
@@ -5814,22 +5811,22 @@
         <v>70131</v>
       </c>
       <c r="H33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
         <v>90</v>
       </c>
       <c r="Q33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="R33" t="s">
         <v>91</v>
       </c>
       <c r="S33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V33" t="s">
         <v>76</v>
@@ -5850,16 +5847,16 @@
         <v>93</v>
       </c>
       <c r="AD33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF33" t="s">
         <v>83</v>
       </c>
       <c r="AG33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH33" t="s">
         <v>83</v>
@@ -5931,22 +5928,22 @@
         <v>6</v>
       </c>
       <c r="BE33" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF33" t="s">
         <v>230</v>
-      </c>
-      <c r="BF33" t="s">
-        <v>231</v>
       </c>
       <c r="BG33" t="s">
         <v>99</v>
       </c>
       <c r="BH33" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI33" t="s">
         <v>232</v>
       </c>
-      <c r="BI33" t="s">
-        <v>233</v>
-      </c>
       <c r="BJ33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
@@ -5969,10 +5966,10 @@
         <v>70118</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J34" t="s">
         <v>90</v>
@@ -5984,7 +5981,7 @@
         <v>70</v>
       </c>
       <c r="S34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V34" t="s">
         <v>76</v>
@@ -6017,7 +6014,7 @@
         <v>80</v>
       </c>
       <c r="AH34" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AI34" t="s">
         <v>77</v>
@@ -6071,22 +6068,22 @@
         <v>10</v>
       </c>
       <c r="BE34" t="s">
+        <v>233</v>
+      </c>
+      <c r="BF34" t="s">
         <v>234</v>
-      </c>
-      <c r="BF34" t="s">
-        <v>235</v>
       </c>
       <c r="BG34" t="s">
         <v>99</v>
       </c>
       <c r="BH34" t="s">
+        <v>235</v>
+      </c>
+      <c r="BI34" t="s">
         <v>236</v>
       </c>
-      <c r="BI34" t="s">
+      <c r="BJ34" t="s">
         <v>237</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:62" x14ac:dyDescent="0.2">
@@ -6109,10 +6106,10 @@
         <v>70115</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
         <v>90</v>
@@ -6121,13 +6118,13 @@
         <v>29</v>
       </c>
       <c r="Q35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R35" t="s">
         <v>91</v>
       </c>
       <c r="S35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V35" t="s">
         <v>76</v>
@@ -6214,22 +6211,22 @@
         <v>35</v>
       </c>
       <c r="BE35" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF35" t="s">
         <v>239</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>240</v>
       </c>
       <c r="BG35" t="s">
         <v>99</v>
       </c>
       <c r="BH35" t="s">
+        <v>240</v>
+      </c>
+      <c r="BI35" t="s">
         <v>241</v>
       </c>
-      <c r="BI35" t="s">
-        <v>242</v>
-      </c>
       <c r="BJ35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.2">
@@ -6252,7 +6249,7 @@
         <v>70119</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s">
         <v>89</v>
@@ -6267,7 +6264,7 @@
         <v>91</v>
       </c>
       <c r="S36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V36" t="s">
         <v>76</v>
@@ -6354,22 +6351,22 @@
         <v>6</v>
       </c>
       <c r="BE36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF36" t="s">
         <v>243</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>244</v>
       </c>
       <c r="BG36" t="s">
         <v>99</v>
       </c>
       <c r="BH36" t="s">
+        <v>244</v>
+      </c>
+      <c r="BI36" t="s">
         <v>245</v>
       </c>
-      <c r="BI36" t="s">
+      <c r="BJ36" t="s">
         <v>246</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
@@ -6395,7 +6392,7 @@
         <v>70130</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I37" t="s">
         <v>89</v>
@@ -6413,7 +6410,7 @@
         <v>70</v>
       </c>
       <c r="S37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V37" t="s">
         <v>76</v>
@@ -6500,22 +6497,22 @@
         <v>6</v>
       </c>
       <c r="BE37" t="s">
+        <v>248</v>
+      </c>
+      <c r="BF37" t="s">
         <v>249</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>250</v>
       </c>
       <c r="BG37" t="s">
         <v>99</v>
       </c>
       <c r="BH37" t="s">
+        <v>250</v>
+      </c>
+      <c r="BI37" t="s">
         <v>251</v>
       </c>
-      <c r="BI37" t="s">
-        <v>252</v>
-      </c>
       <c r="BJ37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.2">
@@ -6526,7 +6523,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -6658,22 +6655,22 @@
         <v>50</v>
       </c>
       <c r="BE38" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF38" t="s">
         <v>254</v>
-      </c>
-      <c r="BF38" t="s">
-        <v>255</v>
       </c>
       <c r="BG38" t="s">
         <v>99</v>
       </c>
       <c r="BH38" t="s">
+        <v>255</v>
+      </c>
+      <c r="BI38" t="s">
         <v>256</v>
       </c>
-      <c r="BI38" t="s">
+      <c r="BJ38" t="s">
         <v>257</v>
-      </c>
-      <c r="BJ38" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:62" x14ac:dyDescent="0.2">
@@ -6699,13 +6696,13 @@
         <v>70127</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s">
         <v>29</v>
@@ -6714,7 +6711,7 @@
         <v>91</v>
       </c>
       <c r="S39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V39" t="s">
         <v>76</v>
@@ -6816,13 +6813,13 @@
         <v>20</v>
       </c>
       <c r="BE39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BG39" t="s">
         <v>99</v>
       </c>
       <c r="BJ39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.2">
@@ -6851,7 +6848,7 @@
         <v>88</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J40" t="s">
         <v>90</v>
@@ -6965,22 +6962,22 @@
         <v>0</v>
       </c>
       <c r="BE40" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF40" t="s">
         <v>262</v>
-      </c>
-      <c r="BF40" t="s">
-        <v>263</v>
       </c>
       <c r="BG40" t="s">
         <v>99</v>
       </c>
       <c r="BH40" t="s">
+        <v>263</v>
+      </c>
+      <c r="BI40" t="s">
         <v>264</v>
       </c>
-      <c r="BI40" t="s">
+      <c r="BJ40" t="s">
         <v>265</v>
-      </c>
-      <c r="BJ40" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.2">
@@ -7140,10 +7137,10 @@
         <v>70119</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J42" t="s">
         <v>90</v>
@@ -7158,7 +7155,7 @@
         <v>91</v>
       </c>
       <c r="S42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V42" t="s">
         <v>76</v>
@@ -7245,22 +7242,22 @@
         <v>10</v>
       </c>
       <c r="BE42" t="s">
+        <v>266</v>
+      </c>
+      <c r="BF42" t="s">
         <v>267</v>
-      </c>
-      <c r="BF42" t="s">
-        <v>268</v>
       </c>
       <c r="BG42" t="s">
         <v>99</v>
       </c>
       <c r="BH42" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI42" t="s">
         <v>269</v>
       </c>
-      <c r="BI42" t="s">
+      <c r="BJ42" t="s">
         <v>270</v>
-      </c>
-      <c r="BJ42" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:62" x14ac:dyDescent="0.2">
@@ -7301,7 +7298,7 @@
         <v>91</v>
       </c>
       <c r="S43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V43" t="s">
         <v>76</v>
@@ -7388,22 +7385,22 @@
         <v>4</v>
       </c>
       <c r="BE43" t="s">
+        <v>271</v>
+      </c>
+      <c r="BF43" t="s">
         <v>272</v>
-      </c>
-      <c r="BF43" t="s">
-        <v>273</v>
       </c>
       <c r="BG43" t="s">
         <v>99</v>
       </c>
       <c r="BH43" t="s">
+        <v>273</v>
+      </c>
+      <c r="BI43" t="s">
         <v>274</v>
       </c>
-      <c r="BI43" t="s">
-        <v>275</v>
-      </c>
       <c r="BJ43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:62" x14ac:dyDescent="0.2">
@@ -7414,7 +7411,7 @@
         <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -7429,7 +7426,7 @@
         <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J44" t="s">
         <v>90</v>
@@ -7438,7 +7435,7 @@
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S44" t="s">
         <v>92</v>
@@ -7531,22 +7528,22 @@
         <v>5</v>
       </c>
       <c r="BE44" t="s">
+        <v>275</v>
+      </c>
+      <c r="BF44" t="s">
         <v>276</v>
-      </c>
-      <c r="BF44" t="s">
-        <v>277</v>
       </c>
       <c r="BG44" t="s">
         <v>99</v>
       </c>
       <c r="BH44" t="s">
+        <v>277</v>
+      </c>
+      <c r="BI44" t="s">
         <v>278</v>
       </c>
-      <c r="BI44" t="s">
+      <c r="BJ44" t="s">
         <v>279</v>
-      </c>
-      <c r="BJ44" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:62" x14ac:dyDescent="0.2">
@@ -7569,7 +7566,7 @@
         <v>70128</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I45" t="s">
         <v>89</v>
@@ -7578,13 +7575,13 @@
         <v>90</v>
       </c>
       <c r="Q45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="R45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T45" t="s">
         <v>75</v>
@@ -7674,22 +7671,22 @@
         <v>1</v>
       </c>
       <c r="BE45" t="s">
+        <v>281</v>
+      </c>
+      <c r="BF45" t="s">
         <v>282</v>
-      </c>
-      <c r="BF45" t="s">
-        <v>283</v>
       </c>
       <c r="BG45" t="s">
         <v>99</v>
       </c>
       <c r="BH45" t="s">
+        <v>283</v>
+      </c>
+      <c r="BI45" t="s">
         <v>284</v>
       </c>
-      <c r="BI45" t="s">
+      <c r="BJ45" t="s">
         <v>285</v>
-      </c>
-      <c r="BJ45" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="46" spans="1:62" x14ac:dyDescent="0.2">
@@ -7700,7 +7697,7 @@
         <v>36</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -7715,7 +7712,7 @@
         <v>72</v>
       </c>
       <c r="I46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J46" t="s">
         <v>90</v>
@@ -7817,13 +7814,13 @@
         <v>99</v>
       </c>
       <c r="BH46" t="s">
+        <v>287</v>
+      </c>
+      <c r="BI46" t="s">
         <v>288</v>
       </c>
-      <c r="BI46" t="s">
+      <c r="BJ46" t="s">
         <v>289</v>
-      </c>
-      <c r="BJ46" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:62" x14ac:dyDescent="0.2">
@@ -7864,7 +7861,7 @@
         <v>91</v>
       </c>
       <c r="S47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V47" t="s">
         <v>76</v>
@@ -7966,22 +7963,22 @@
         <v>5</v>
       </c>
       <c r="BE47" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF47" t="s">
         <v>291</v>
-      </c>
-      <c r="BF47" t="s">
-        <v>292</v>
       </c>
       <c r="BG47" t="s">
         <v>99</v>
       </c>
       <c r="BH47" t="s">
+        <v>292</v>
+      </c>
+      <c r="BI47" t="s">
         <v>293</v>
       </c>
-      <c r="BI47" t="s">
+      <c r="BJ47" t="s">
         <v>294</v>
-      </c>
-      <c r="BJ47" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
@@ -7992,7 +7989,7 @@
         <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -8010,7 +8007,7 @@
         <v>72</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J48" t="s">
         <v>90</v>
@@ -8124,22 +8121,22 @@
         <v>4</v>
       </c>
       <c r="BE48" t="s">
+        <v>295</v>
+      </c>
+      <c r="BF48" t="s">
         <v>296</v>
-      </c>
-      <c r="BF48" t="s">
-        <v>297</v>
       </c>
       <c r="BG48" t="s">
         <v>99</v>
       </c>
       <c r="BH48" t="s">
+        <v>297</v>
+      </c>
+      <c r="BI48" t="s">
         <v>298</v>
       </c>
-      <c r="BI48" t="s">
-        <v>299</v>
-      </c>
       <c r="BJ48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.2">
@@ -8165,7 +8162,7 @@
         <v>70065</v>
       </c>
       <c r="H49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I49" t="s">
         <v>89</v>
@@ -8261,10 +8258,10 @@
         <v>83</v>
       </c>
       <c r="AX49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AY49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AZ49" t="s">
         <v>83</v>
@@ -8282,22 +8279,22 @@
         <v>14</v>
       </c>
       <c r="BE49" t="s">
+        <v>299</v>
+      </c>
+      <c r="BF49" t="s">
         <v>300</v>
-      </c>
-      <c r="BF49" t="s">
-        <v>301</v>
       </c>
       <c r="BG49" t="s">
         <v>99</v>
       </c>
       <c r="BH49" t="s">
+        <v>301</v>
+      </c>
+      <c r="BI49" t="s">
         <v>302</v>
       </c>
-      <c r="BI49" t="s">
-        <v>303</v>
-      </c>
       <c r="BJ49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.2">
@@ -8320,10 +8317,10 @@
         <v>70131</v>
       </c>
       <c r="H50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J50" t="s">
         <v>90</v>
@@ -8368,7 +8365,7 @@
         <v>84</v>
       </c>
       <c r="AG50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH50" t="s">
         <v>84</v>
@@ -8440,22 +8437,22 @@
         <v>6</v>
       </c>
       <c r="BE50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BF50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BG50" t="s">
         <v>99</v>
       </c>
       <c r="BH50" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI50" t="s">
         <v>305</v>
       </c>
-      <c r="BI50" t="s">
+      <c r="BJ50" t="s">
         <v>306</v>
-      </c>
-      <c r="BJ50" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.2">
@@ -8481,13 +8478,13 @@
         <v>72</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J51" t="s">
         <v>90</v>
       </c>
       <c r="Q51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="R51" t="s">
         <v>91</v>
@@ -8595,22 +8592,22 @@
         <v>7</v>
       </c>
       <c r="BE51" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF51" t="s">
         <v>309</v>
-      </c>
-      <c r="BF51" t="s">
-        <v>310</v>
       </c>
       <c r="BG51" t="s">
         <v>99</v>
       </c>
       <c r="BH51" t="s">
+        <v>310</v>
+      </c>
+      <c r="BI51" t="s">
         <v>311</v>
       </c>
-      <c r="BI51" t="s">
+      <c r="BJ51" t="s">
         <v>312</v>
-      </c>
-      <c r="BJ51" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.2">
@@ -8639,19 +8636,19 @@
         <v>88</v>
       </c>
       <c r="I52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J52" t="s">
         <v>90</v>
       </c>
       <c r="Q52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="R52" t="s">
         <v>70</v>
       </c>
       <c r="S52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V52" t="s">
         <v>76</v>
@@ -8677,7 +8674,7 @@
         <v>70119</v>
       </c>
       <c r="H53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I53" t="s">
         <v>89</v>
@@ -8692,7 +8689,7 @@
         <v>91</v>
       </c>
       <c r="S53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V53" t="s">
         <v>76</v>
@@ -8779,22 +8776,22 @@
         <v>3</v>
       </c>
       <c r="BE53" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF53" t="s">
         <v>315</v>
-      </c>
-      <c r="BF53" t="s">
-        <v>316</v>
       </c>
       <c r="BG53" t="s">
         <v>99</v>
       </c>
       <c r="BH53" t="s">
+        <v>316</v>
+      </c>
+      <c r="BI53" t="s">
         <v>317</v>
       </c>
-      <c r="BI53" t="s">
+      <c r="BJ53" t="s">
         <v>318</v>
-      </c>
-      <c r="BJ53" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.2">
@@ -8820,7 +8817,7 @@
         <v>70072</v>
       </c>
       <c r="H54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I54" t="s">
         <v>89</v>
@@ -8829,7 +8826,7 @@
         <v>90</v>
       </c>
       <c r="Q54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R54" t="s">
         <v>91</v>
@@ -8922,22 +8919,22 @@
         <v>15</v>
       </c>
       <c r="BE54" t="s">
+        <v>320</v>
+      </c>
+      <c r="BF54" t="s">
         <v>321</v>
-      </c>
-      <c r="BF54" t="s">
-        <v>322</v>
       </c>
       <c r="BG54" t="s">
         <v>99</v>
       </c>
       <c r="BH54" t="s">
+        <v>322</v>
+      </c>
+      <c r="BI54" t="s">
         <v>323</v>
       </c>
-      <c r="BI54" t="s">
+      <c r="BJ54" t="s">
         <v>324</v>
-      </c>
-      <c r="BJ54" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.2">
@@ -8972,7 +8969,7 @@
         <v>90</v>
       </c>
       <c r="Q55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R55" t="s">
         <v>70</v>
@@ -9038,10 +9035,10 @@
         <v>95</v>
       </c>
       <c r="AQ55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AR55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS55" t="s">
         <v>86</v>
@@ -9088,10 +9085,10 @@
         <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L56" t="s">
         <v>29</v>
@@ -9100,7 +9097,7 @@
         <v>91</v>
       </c>
       <c r="S56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V56" t="s">
         <v>76</v>
@@ -9187,22 +9184,22 @@
         <v>2</v>
       </c>
       <c r="BE56" t="s">
+        <v>326</v>
+      </c>
+      <c r="BF56" t="s">
         <v>327</v>
-      </c>
-      <c r="BF56" t="s">
-        <v>328</v>
       </c>
       <c r="BG56" t="s">
         <v>99</v>
       </c>
       <c r="BH56" t="s">
+        <v>328</v>
+      </c>
+      <c r="BI56" t="s">
         <v>329</v>
       </c>
-      <c r="BI56" t="s">
+      <c r="BJ56" t="s">
         <v>330</v>
-      </c>
-      <c r="BJ56" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
@@ -9225,13 +9222,13 @@
         <v>70122</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K57" t="s">
         <v>28</v>
@@ -9327,22 +9324,22 @@
         <v>10</v>
       </c>
       <c r="BE57" t="s">
+        <v>331</v>
+      </c>
+      <c r="BF57" t="s">
         <v>332</v>
-      </c>
-      <c r="BF57" t="s">
-        <v>333</v>
       </c>
       <c r="BG57" t="s">
         <v>99</v>
       </c>
       <c r="BH57" t="s">
+        <v>333</v>
+      </c>
+      <c r="BI57" t="s">
         <v>334</v>
       </c>
-      <c r="BI57" t="s">
+      <c r="BJ57" t="s">
         <v>335</v>
-      </c>
-      <c r="BJ57" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
@@ -9365,10 +9362,10 @@
         <v>70124</v>
       </c>
       <c r="H58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J58" t="s">
         <v>90</v>
@@ -9406,13 +9403,13 @@
         <v>70119</v>
       </c>
       <c r="H59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J59" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s">
         <v>29</v>
@@ -9508,22 +9505,22 @@
         <v>5</v>
       </c>
       <c r="BE59" t="s">
+        <v>336</v>
+      </c>
+      <c r="BF59" t="s">
         <v>337</v>
-      </c>
-      <c r="BF59" t="s">
-        <v>338</v>
       </c>
       <c r="BG59" t="s">
         <v>99</v>
       </c>
       <c r="BH59" t="s">
+        <v>338</v>
+      </c>
+      <c r="BI59" t="s">
         <v>339</v>
       </c>
-      <c r="BI59" t="s">
+      <c r="BJ59" t="s">
         <v>340</v>
-      </c>
-      <c r="BJ59" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.2">
@@ -9651,22 +9648,22 @@
         <v>3</v>
       </c>
       <c r="BE60" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF60" t="s">
         <v>342</v>
-      </c>
-      <c r="BF60" t="s">
-        <v>343</v>
       </c>
       <c r="BG60" t="s">
         <v>99</v>
       </c>
       <c r="BH60" t="s">
+        <v>343</v>
+      </c>
+      <c r="BI60" t="s">
         <v>344</v>
       </c>
-      <c r="BI60" t="s">
-        <v>345</v>
-      </c>
       <c r="BJ60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
@@ -9689,7 +9686,7 @@
         <v>70119</v>
       </c>
       <c r="H61" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I61" t="s">
         <v>89</v>
@@ -9704,7 +9701,7 @@
         <v>91</v>
       </c>
       <c r="S61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V61" t="s">
         <v>70</v>
@@ -9791,10 +9788,10 @@
         <v>5</v>
       </c>
       <c r="BE61" t="s">
+        <v>345</v>
+      </c>
+      <c r="BF61" t="s">
         <v>346</v>
-      </c>
-      <c r="BF61" t="s">
-        <v>347</v>
       </c>
       <c r="BG61" t="s">
         <v>99</v>
@@ -9803,10 +9800,10 @@
         <v>106</v>
       </c>
       <c r="BI61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BJ61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
@@ -9817,7 +9814,7 @@
         <v>27</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -9844,7 +9841,7 @@
         <v>91</v>
       </c>
       <c r="S62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V62" t="s">
         <v>76</v>
@@ -9931,22 +9928,22 @@
         <v>3</v>
       </c>
       <c r="BE62" t="s">
+        <v>348</v>
+      </c>
+      <c r="BF62" t="s">
         <v>349</v>
-      </c>
-      <c r="BF62" t="s">
-        <v>350</v>
       </c>
       <c r="BG62" t="s">
         <v>99</v>
       </c>
       <c r="BH62" t="s">
+        <v>350</v>
+      </c>
+      <c r="BI62" t="s">
         <v>351</v>
       </c>
-      <c r="BI62" t="s">
-        <v>352</v>
-      </c>
       <c r="BJ62" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.2">
@@ -9969,22 +9966,22 @@
         <v>70126</v>
       </c>
       <c r="H63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J63" t="s">
         <v>90</v>
       </c>
       <c r="Q63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R63" t="s">
         <v>91</v>
       </c>
       <c r="S63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V63" t="s">
         <v>76</v>
@@ -10013,7 +10010,7 @@
         <v>88</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J64" t="s">
         <v>74</v>
@@ -10112,22 +10109,22 @@
         <v>10</v>
       </c>
       <c r="BE64" t="s">
+        <v>352</v>
+      </c>
+      <c r="BF64" t="s">
         <v>353</v>
-      </c>
-      <c r="BF64" t="s">
-        <v>354</v>
       </c>
       <c r="BG64" t="s">
         <v>99</v>
       </c>
       <c r="BH64" t="s">
+        <v>354</v>
+      </c>
+      <c r="BI64" t="s">
         <v>355</v>
       </c>
-      <c r="BI64" t="s">
-        <v>356</v>
-      </c>
       <c r="BJ64" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:62" x14ac:dyDescent="0.2">
@@ -10153,10 +10150,10 @@
         <v>70005</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J65" t="s">
         <v>90</v>
@@ -10168,7 +10165,7 @@
         <v>91</v>
       </c>
       <c r="S65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V65" t="s">
         <v>76</v>
@@ -10255,22 +10252,22 @@
         <v>2</v>
       </c>
       <c r="BE65" t="s">
+        <v>356</v>
+      </c>
+      <c r="BF65" t="s">
         <v>357</v>
-      </c>
-      <c r="BF65" t="s">
-        <v>358</v>
       </c>
       <c r="BG65" t="s">
         <v>99</v>
       </c>
       <c r="BH65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BI65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BJ65" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
